--- a/input.xlsx
+++ b/input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14400" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,18 +21,10 @@
     <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -182,7 +174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill/>
     </fill>
@@ -191,6 +183,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -373,6 +371,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -500,139 +504,141 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1018,21 +1024,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="18.2857142857143" customWidth="1" min="1" max="1"/>
-    <col width="28.2857142857143" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="18.2857142857143" customWidth="1" style="1" min="1" max="1"/>
+    <col width="28.2857142857143" customWidth="1" style="1" min="2" max="2"/>
+    <col width="30" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
@@ -1047,519 +1053,514 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Input data by sheets</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Kennedy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>patrick75@example.org</t>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Brandon</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>paulabrown@example.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Travis</t>
+          <t>Stephen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Howard</t>
+          <t>Foster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>shawn42@example.org</t>
+          <t>fernandezhannah@example.net</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Joshua</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lee</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>zbenson@example.net</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Oliver</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>stephenrobinson@example.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Edward</t>
+          <t>Hailey</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>Abbott</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>wmanning@example.com</t>
+          <t>williamssarah@example.com</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tammy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>margaret96@example.net</t>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Gary</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Townsend</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>jameslarson@example.net</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Clark</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brownregina@example.net</t>
+          <t>reginaldperez@example.com</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jasmine</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Howell</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>anthony51@example.net</t>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Cassandra</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Webster</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>jimmy64@example.org</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Donna</t>
+          <t>Bobby</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cook</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>heatherdiaz@example.com</t>
+          <t>cynthia63@example.net</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Castillo</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>barbara96@example.org</t>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Brandy</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Berry</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>charles77@example.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Daniels</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>qjohnson@example.com</t>
+          <t>frankdonald@example.com</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Jacob</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Rivas</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>cbrown@example.com</t>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Tracy</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Romero</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>rhughes@example.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wagner</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>tamara26@example.com</t>
+          <t>mmartinez@example.net</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sean</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Russell</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>stephanieday@example.com</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Keith</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>danny12@example.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Kaitlyn</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Reed</t>
+          <t>Robinson</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>paula91@example.net</t>
+          <t>wbrown@example.com</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Rhodes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>bbartlett@example.org</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Marvin</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Delacruz</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>patrick66@example.org</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>David</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bartlett</t>
+          <t>Barrera</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>andersonmary@example.com</t>
+          <t>pachecojeffrey@example.com</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Steven</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Moore</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>burkejoseph@example.com</t>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Tracey</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Deleon</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>normantracy@example.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>William</t>
+          <t>Teresa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Simmons</t>
+          <t>Curtis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>susanchen@example.org</t>
+          <t>robert22@example.org</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Robert</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Lambert</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>williamspears@example.com</t>
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Clarence</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>lallen@example.org</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Shelly</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Silva</t>
+          <t>Oliver</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>harveymelissa@example.org</t>
+          <t>danny93@example.com</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Heather</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Thompson</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>lisajohnson@example.net</t>
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>emilyparker@example.org</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Allison</t>
+          <t>Carolyn</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Garrison</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>diana37@example.org</t>
+          <t>ztravis@example.net</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Barry</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Rich</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>chungkevin@example.net</t>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>carrjeremy@example.org</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>David</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Coleman</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bennettjames@example.net</t>
+          <t>michealbriggs@example.com</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Christina</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Lee</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>fgutierrez@example.net</t>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Anthony</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>westbrent@example.org</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Henry</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Carrillo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>benjaminknox@example.net</t>
+          <t>amber68@example.com</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Kendra</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Solis</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ireynolds@example.org</t>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Gibson</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>susan56@example.net</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Young</t>
+          <t>Chambers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>adamsandrea@example.org</t>
+          <t>larry00@example.net</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Daniel</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ortiz</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>privas@example.net</t>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Ali</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>wgonzalez@example.org</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jeffery</t>
+          <t>Roger</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fleming</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>olsonlaura@example.org</t>
+          <t>jose86@example.net</t>
         </is>
       </c>
     </row>
